--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -1465,7 +1465,7 @@
         <v>78.73999999999999</v>
       </c>
       <c r="W13">
-        <v>10.16428571428571</v>
+        <v>10.16</v>
       </c>
       <c r="X13">
         <v>140</v>
@@ -1539,7 +1539,7 @@
         <v>74.5</v>
       </c>
       <c r="W14">
-        <v>10.16428571428571</v>
+        <v>10.16</v>
       </c>
       <c r="X14">
         <v>210</v>
@@ -1832,10 +1832,10 @@
         <v>25.27</v>
       </c>
       <c r="V18">
-        <v>96.15789473684211</v>
+        <v>96.16</v>
       </c>
       <c r="W18">
-        <v>10.16428571428571</v>
+        <v>10.16</v>
       </c>
       <c r="X18">
         <v>340</v>
@@ -1909,7 +1909,7 @@
         <v>295.2</v>
       </c>
       <c r="W19">
-        <v>10.16428571428571</v>
+        <v>10.16</v>
       </c>
       <c r="X19">
         <v>480</v>
@@ -1983,7 +1983,7 @@
         <v>263.4</v>
       </c>
       <c r="W20">
-        <v>10.16428571428571</v>
+        <v>10.16</v>
       </c>
       <c r="X20">
         <v>520</v>
@@ -2057,7 +2057,7 @@
         <v>306</v>
       </c>
       <c r="W21">
-        <v>10.16428571428571</v>
+        <v>10.16</v>
       </c>
       <c r="X21">
         <v>600</v>
